--- a/TableExporter/Tables/Test1.xlsx
+++ b/TableExporter/Tables/Test1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27615" windowHeight="13140"/>
+    <workbookView windowWidth="27615" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet1" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -58,6 +58,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -65,7 +72,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -73,22 +80,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,7 +102,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,23 +163,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,29 +200,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -210,61 +210,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,121 +372,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,6 +401,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -433,30 +487,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -471,36 +501,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -509,145 +509,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -982,7 +982,7 @@
   <sheetPr/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1102,7 +1102,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>

--- a/TableExporter/Tables/Test1.xlsx
+++ b/TableExporter/Tables/Test1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27615" windowHeight="13140" activeTab="1"/>
+    <workbookView windowWidth="27615" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet1" sheetId="1" r:id="rId1"/>
@@ -22,11 +22,11 @@
   </si>
   <si>
     <t>IntValue
-[int]</t>
+[Int]</t>
   </si>
   <si>
     <t>FloatValue
-[float]</t>
+[Float]</t>
   </si>
   <si>
     <t>编号</t>
@@ -45,8 +45,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -58,12 +58,80 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -72,7 +140,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -80,7 +148,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,113 +200,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -210,187 +210,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,26 +419,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,28 +458,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,7 +486,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,10 +509,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -521,19 +521,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -542,112 +542,112 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -982,8 +982,8 @@
   <sheetPr/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1102,7 +1102,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>

--- a/TableExporter/Tables/Test1.xlsx
+++ b/TableExporter/Tables/Test1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27615" windowHeight="13140"/>
+    <workbookView windowWidth="27675" windowHeight="13080"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet1" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>TestTable1
+[Tid]</t>
+  </si>
+  <si>
+    <t>Tag
 [Name]</t>
   </si>
   <si>
@@ -29,13 +33,57 @@
 [Float]</t>
   </si>
   <si>
+    <t xml:space="preserve">EnumValue
+[Enum]
+E_TYPE1:类型1
+E_TYPE2:类型2
+E_TYPE3:类型3
+</t>
+  </si>
+  <si>
     <t>编号</t>
   </si>
   <si>
+    <t>名称</t>
+  </si>
+  <si>
     <t>整型数据</t>
   </si>
   <si>
     <t>浮点数据</t>
+  </si>
+  <si>
+    <t>枚举数据</t>
+  </si>
+  <si>
+    <t>表1数据1</t>
+  </si>
+  <si>
+    <t>类型1</t>
+  </si>
+  <si>
+    <t>表1数据2</t>
+  </si>
+  <si>
+    <t>类型2</t>
+  </si>
+  <si>
+    <t>表1数据3</t>
+  </si>
+  <si>
+    <t>类型3</t>
+  </si>
+  <si>
+    <t>表1数据4</t>
+  </si>
+  <si>
+    <t>表1数据5</t>
+  </si>
+  <si>
+    <t>表1数据6</t>
+  </si>
+  <si>
+    <t>表1数据7</t>
   </si>
 </sst>
 </file>
@@ -44,9 +92,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -58,6 +106,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -65,14 +143,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -80,39 +158,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,7 +197,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,53 +246,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -210,19 +258,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,19 +384,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,139 +408,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,60 +449,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -476,8 +470,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,8 +479,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,6 +495,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -509,10 +557,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -521,133 +569,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -980,19 +1028,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="1" max="2" width="22" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34" customHeight="1" spans="1:3">
+    <row r="1" ht="77" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1002,93 +1051,147 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D5" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D6" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>1005</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2">
         <v>5</v>
       </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.2</v>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2.2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
+        <v>1007</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>2.4</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/TableExporter/Tables/Test1.xlsx
+++ b/TableExporter/Tables/Test1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27675" windowHeight="13080"/>
+    <workbookView windowWidth="27675" windowHeight="13080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>TestTable1
 [Tid]</t>
@@ -85,16 +85,20 @@
   <si>
     <t>表1数据7</t>
   </si>
+  <si>
+    <t>TestTable2
+[Tid]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -106,6 +110,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -113,15 +131,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,23 +152,78 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,76 +239,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,61 +262,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,121 +442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,17 +456,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,44 +476,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,6 +514,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -557,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -569,133 +573,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1030,8 +1034,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1203,14 +1207,175 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="26.875" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="20.875" customWidth="1"/>
+    <col min="5" max="5" width="25.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="81" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>1005</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2.2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>1007</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/TableExporter/Tables/Test1.xlsx
+++ b/TableExporter/Tables/Test1.xlsx
@@ -95,10 +95,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -110,28 +110,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,23 +153,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,8 +176,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,6 +238,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -236,22 +252,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -262,37 +262,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,145 +436,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,9 +458,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,17 +471,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -515,6 +506,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -538,21 +553,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -561,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,142 +573,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1207,22 +1210,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="26.875" customWidth="1"/>
     <col min="2" max="2" width="18.875" customWidth="1"/>
     <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="20.875" customWidth="1"/>
-    <col min="5" max="5" width="25.75" customWidth="1"/>
+    <col min="4" max="4" width="25.75" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="8" max="8" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="81" spans="1:5">
+    <row r="1" ht="81" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,30 +1237,32 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>1001</v>
       </c>
@@ -1266,14 +1272,15 @@
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2">
         <v>1.2</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>1002</v>
       </c>
@@ -1283,14 +1290,15 @@
       <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2">
         <v>1.4</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>1003</v>
       </c>
@@ -1300,14 +1308,15 @@
       <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
         <v>1.6</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>1004</v>
       </c>
@@ -1317,14 +1326,15 @@
       <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2">
         <v>1.8</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>1005</v>
       </c>
@@ -1334,14 +1344,15 @@
       <c r="C7" s="2">
         <v>5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>1006</v>
       </c>
@@ -1351,14 +1362,15 @@
       <c r="C8" s="2">
         <v>6</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2">
         <v>2.2</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>1007</v>
       </c>
@@ -1368,12 +1380,13 @@
       <c r="C9" s="2">
         <v>7</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2">
         <v>2.4</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="H9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/TableExporter/Tables/Test1.xlsx
+++ b/TableExporter/Tables/Test1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
   <si>
     <t>TestTable1
 [Tid]</t>
@@ -89,16 +89,44 @@
     <t>TestTable2
 [Tid]</t>
   </si>
+  <si>
+    <t>StringValue
+[String]</t>
+  </si>
+  <si>
+    <t>字符串数据1</t>
+  </si>
+  <si>
+    <t>字符串数据2</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>sdfe</t>
+  </si>
+  <si>
+    <t>sdfsd</t>
+  </si>
+  <si>
+    <t>dsfsd</t>
+  </si>
+  <si>
+    <t>dsfsdf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -124,6 +152,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -132,7 +183,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,14 +227,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,47 +243,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,24 +265,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,175 +296,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,13 +484,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,35 +547,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,145 +589,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -711,7 +739,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1066,138 +1094,138 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>1001</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>1.2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>1002</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>1.4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>1003</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>1.6</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>1004</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>4</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>1.8</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>1005</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>1006</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>6</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>2.2</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>1007</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>7</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>2.4</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1213,7 +1241,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1223,6 +1251,8 @@
     <col min="3" max="3" width="21.625" customWidth="1"/>
     <col min="4" max="4" width="25.75" customWidth="1"/>
     <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="18.75" customWidth="1"/>
     <col min="8" max="8" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1242,151 +1272,199 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>1001</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>1.2</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>1002</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>1.4</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>1003</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>1.6</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>1004</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>1.8</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>1005</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>1006</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>6</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>2.2</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>1007</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>2.4</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
